--- a/操作手順書ver1.xlsx
+++ b/操作手順書ver1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F84B03-186E-435F-B510-5941568213B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773560AD-C825-4252-897B-F62660FBC8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,21 @@
     <sheet name="lambda" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,488 +495,3720 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>83130</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>168853</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7A1A82-0FA6-EC61-F1A6-4C2F66EDEE3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20851092" y="11984182"/>
+          <a:ext cx="22181129" cy="10248035"/>
+          <a:chOff x="27016364" y="17699182"/>
+          <a:chExt cx="22181129" cy="10248035"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="51" name="図 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD15515-1246-47B0-86C3-5CD4EFC08E65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="27016364" y="17699182"/>
+            <a:ext cx="22162345" cy="10219936"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D8277D-8EC7-4BE4-BE29-8A76272CED16}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="27238038" y="23804706"/>
+            <a:ext cx="21356782" cy="713511"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C89DD9-321A-47E2-B151-31924551D4A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="47555729" y="24777989"/>
+            <a:ext cx="69273" cy="2268682"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="正方形/長方形 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02113449-5CEC-458B-AAEE-E627E905EC7D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="46239547" y="27095160"/>
+            <a:ext cx="2957946" cy="852057"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>683201</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBC90BF-9A9B-E319-2D64-3D8D8759984C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142874" y="446562"/>
+          <a:ext cx="7467600" cy="8333756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="2800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="2800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="2800" b="1"/>
+            <a:t>CloudWatch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>Alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>サービスにアクセス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>２、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>右上の「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1" baseline="0"/>
+            <a:t>alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>」ボタンを押して、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>Alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>作成ステップにアクセスして、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>Select metric</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>」ボタンを押します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>３、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>該当</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>namespace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>に指定されている</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>Metrics</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>を選んで右下の「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>Select metric</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>」ボタンを押して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+            <a:t>alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>設定画面にアクセスします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="2800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="2800" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273626</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>397085</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>77192</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142470</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25765B53-2B74-F5A6-8B47-F67988717C71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43909120-534A-6942-1231-4473E1C9A6A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7893626" y="0"/>
+          <a:ext cx="24049021" cy="3294379"/>
+          <a:chOff x="7322126" y="127042"/>
+          <a:chExt cx="24049021" cy="3294379"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25765B53-2B74-F5A6-8B47-F67988717C71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7408965" y="127042"/>
+            <a:ext cx="23962182" cy="3294379"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90727AEC-5319-750A-43FF-9F6BA28329F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7412181" y="155863"/>
+            <a:ext cx="2493819" cy="1108363"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9ADF1C-ACFA-4EB3-844E-FCCE05E5293A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7322126" y="1988127"/>
+            <a:ext cx="2635829" cy="1302328"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D2D143-E9E9-44B7-BA65-559CD22F8C98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="29163818" y="807027"/>
+            <a:ext cx="2126673" cy="1184564"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE85EA4-67CD-92EF-120A-9FB50D180B61}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8624455" y="1298864"/>
+            <a:ext cx="0" cy="606136"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E608D9C-A1CC-4A90-B093-BA945953B7EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10200409" y="1627909"/>
+            <a:ext cx="18565091" cy="1091046"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>109723</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54730</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C55FDA9-CAE4-BEF9-48F6-5175EBA4E1B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="32281091" y="17319"/>
+          <a:ext cx="14934087" cy="5613866"/>
+          <a:chOff x="31588364" y="0"/>
+          <a:chExt cx="14934087" cy="5613866"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8093D2F-9D45-BCE7-2162-0D52A0E7CE8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="32124609" y="0"/>
+            <a:ext cx="14397842" cy="5613866"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E775791-FB0F-4156-9A8D-862F121B7909}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="36038519" y="3113562"/>
+            <a:ext cx="2096118" cy="627166"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108B17D0-B9B5-4737-8E79-B983CE86DF67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="31588364" y="1454727"/>
+            <a:ext cx="4277591" cy="2026228"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335231</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>294410</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="グループ化 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2107B3AD-ADAD-30DB-EC3A-D315426AC480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8647958" y="3792681"/>
+          <a:ext cx="28360997" cy="14114319"/>
+          <a:chOff x="7435685" y="4000500"/>
+          <a:chExt cx="28360997" cy="14114319"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104CEB35-C60C-F177-790F-194C874E5E18}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:srcRect r="48859"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18775075" y="4723536"/>
+            <a:ext cx="11271972" cy="6659755"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="50" name="グループ化 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D928A4-5E55-54BF-46FF-90409A38CE97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7435685" y="4000500"/>
+            <a:ext cx="28360997" cy="14114319"/>
+            <a:chOff x="7435685" y="4000500"/>
+            <a:chExt cx="28360997" cy="14114319"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5972A7A8-6B1A-60D1-EA6F-E6F98B25B6E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect r="51673"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7435685" y="4415889"/>
+              <a:ext cx="10661815" cy="9668420"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="正方形/長方形 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6A233-6D3A-440F-BC16-48417B9C00CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533408" y="10442864"/>
+              <a:ext cx="5576455" cy="1160318"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="正方形/長方形 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E261E34A-A293-4CCF-97FD-C54635AC6AC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24210818" y="10477499"/>
+              <a:ext cx="5507182" cy="1143001"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551BC9B4-3FD7-4D3B-BF4B-9BC8EF3B59AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="13577455" y="4000500"/>
+              <a:ext cx="22219227" cy="7013864"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58225AB7-AE73-4540-8EE3-DE5364692444}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="13525500" y="11135591"/>
+              <a:ext cx="10425545" cy="398318"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA56C7C-A37A-4A54-ABFC-7B2572CCC300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25440409" y="11966864"/>
+              <a:ext cx="207818" cy="6147955"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244619</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>196996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>630411</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="88" name="グループ化 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD21013-73C4-4DB2-7FE6-AF44862A8BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8557346" y="23230178"/>
+          <a:ext cx="26016701" cy="9078191"/>
+          <a:chOff x="7518255" y="24788814"/>
+          <a:chExt cx="26016701" cy="9078191"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="77" name="グループ化 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550DE22A-52AD-F0C0-B82A-C90107A88BBC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7518255" y="24788814"/>
+            <a:ext cx="26016701" cy="9045907"/>
+            <a:chOff x="6912119" y="24355859"/>
+            <a:chExt cx="26016701" cy="9045907"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="図 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A318CED-5F40-0207-A85C-DF7940A3136F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6912119" y="24470592"/>
+              <a:ext cx="13986152" cy="8423394"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="図 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C795E85-7725-D26D-2D96-A99BB85C53B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22727083" y="24355859"/>
+              <a:ext cx="10201737" cy="9045907"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="正方形/長方形 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CA0E7B-630D-47C0-A2BA-7FA8CC5FB76D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15603682" y="29510182"/>
+              <a:ext cx="4935682" cy="1039091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="正方形/長方形 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABBC302-C7CF-4EDE-B106-B1B91C891260}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15600218" y="30545809"/>
+              <a:ext cx="4935682" cy="1039091"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="正方形/長方形 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6ED9AF9-3075-458C-B2C9-6B00A9208EA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22818437" y="25346891"/>
+              <a:ext cx="4907972" cy="1236518"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="正方形/長方形 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D60CB52-CC24-4278-9669-C403AE625C97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25378064" y="27040609"/>
+              <a:ext cx="2331027" cy="1032164"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="正方形/長方形 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069E0276-B5DF-4CAB-AFF0-C4AFA5597CC4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22863464" y="28128191"/>
+              <a:ext cx="2576945" cy="1018309"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="正方形/長方形 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF391F15-9C5B-4DD5-9D04-60A992110076}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22894637" y="30116318"/>
+              <a:ext cx="3983181" cy="1125682"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="正方形/長方形 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D08800-6117-4550-88BB-A0C3506B0CC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22925810" y="31758082"/>
+              <a:ext cx="4973781" cy="592282"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A132FED-397D-4187-848B-D77BE5551AB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="20712546" y="26306318"/>
+              <a:ext cx="1853045" cy="4727863"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76ABAA00-AFC6-4044-8135-12DFCEAC94AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="32229136" y="33274723"/>
+            <a:ext cx="1148627" cy="592282"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6436538-832F-4D0F-8587-B164480E46C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="28800136" y="32696727"/>
+            <a:ext cx="3065319" cy="675409"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>469606</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="グループ化 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2B5825-9645-99FC-7EE1-11E390596EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9057409" y="32817955"/>
+          <a:ext cx="30204924" cy="10252364"/>
+          <a:chOff x="8052955" y="32679409"/>
+          <a:chExt cx="30204924" cy="10252364"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC03C3A-CF43-A8BE-0449-38C8164CB988}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8052955" y="34108161"/>
+            <a:ext cx="14405200" cy="8689197"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="図 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B09662-F299-6247-932D-E20E09BD25D6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23143587" y="34493488"/>
+            <a:ext cx="15114292" cy="8190494"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="正方形/長方形 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A6A46C-780D-40AA-8210-2C82E186F62D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12003664" y="36755678"/>
+            <a:ext cx="3253654" cy="1794595"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="正方形/長方形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C96460-7EB2-4CAD-867C-A9647EA34015}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12000201" y="38827363"/>
+            <a:ext cx="3253654" cy="412173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BFD230-A84B-47C2-95AE-EBC797B940FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12031373" y="40157400"/>
+            <a:ext cx="5234854" cy="2774373"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4008CCC-1C66-4FC8-93E5-03488310A4E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="26834954" y="35512664"/>
+            <a:ext cx="8009227" cy="4665518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="正方形/長方形 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B767E8-8A55-418B-A78F-4A5EADFC8602}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="35848637" y="41771455"/>
+            <a:ext cx="1143000" cy="741218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85562AAD-DA29-4998-ACF3-664F9AFF33F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="17422091" y="39052500"/>
+            <a:ext cx="8745682" cy="2424545"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE0CAF4-27B1-4F8E-A14E-575401559D59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="34653682" y="40472591"/>
+            <a:ext cx="1108363" cy="1056409"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA679A1-4B2E-48BC-8EEA-D5BE8C773A73}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="15846136" y="32679409"/>
+            <a:ext cx="16157865" cy="4294909"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>660257</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>606136</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="112" name="グループ化 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FF1BD4-44D4-66FE-B402-1394C4DFEFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8972984" y="42741273"/>
+          <a:ext cx="27654970" cy="11811000"/>
+          <a:chOff x="8972984" y="42741273"/>
+          <a:chExt cx="27654970" cy="11811000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="110" name="グループ化 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83466F8D-D26D-5D54-31A8-2F24DDAFA44B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8972984" y="43667797"/>
+            <a:ext cx="10527710" cy="10884476"/>
+            <a:chOff x="8055120" y="43563888"/>
+            <a:chExt cx="10527710" cy="10884476"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="図 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B62DA74-A1F6-E9E6-7113-787E538F290D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8055120" y="43563888"/>
+              <a:ext cx="10527710" cy="10780976"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="正方形/長方形 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DE3FA7-7040-4687-AD85-10455BD5DDB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16414173" y="53648264"/>
+              <a:ext cx="1787235" cy="800100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D5C87-C2D9-4E36-B3FF-2C32D48CECAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="19638818" y="42741273"/>
+            <a:ext cx="16989136" cy="11170227"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="テキスト ボックス 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245418EB-C772-79D4-D576-05620E471A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="23714285" cy="3238095"/>
+          <a:off x="0" y="23500773"/>
+          <a:ext cx="8191500" cy="22582910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>４、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Statistic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Maximum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を選びます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>５、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Period</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「１</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>minute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を選びます。（無料範囲）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>６、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Threshold type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Static</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を選びます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>７、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Whenever Complete_AGI_HUNGUP is...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Greater/Equal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を選びます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>８、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>than…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「１」を入力する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>９、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Datapoints to alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「１」、「１」を入力する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１０、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Missing data treatment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Treat missing data as good ( not breaching threshold )</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を選びます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１１、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>state trigger</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を選びます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１２、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Send a notification to the following SNS topic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select an existing SNS topic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を選びます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１３、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Send a notification to…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に指定された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ARN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リンクを入力します。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１４、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Name and description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」画面に発報メッセージを編集してから右下の「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Next</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」ボタンを押して、設定確認画面にアクセスする。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１５、</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>右下の「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Creat alar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ｍ」ボタンを押して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alarm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を作成出来ます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>183944</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>37411</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8093D2F-9D45-BCE7-2162-0D52A0E7CE8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E292E3-BF78-4371-B93A-C33C925FE553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25884188" y="0"/>
-          <a:ext cx="14352381" cy="5514286"/>
+          <a:off x="3706091" y="8866909"/>
+          <a:ext cx="121227" cy="14200909"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>592562</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>113113</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5972A7A8-6B1A-60D1-EA6F-E6F98B25B6E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5143500"/>
-          <a:ext cx="22000000" cy="9495238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>325866</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161107</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104CEB35-C60C-F177-790F-194C874E5E18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23931563" y="7429500"/>
-          <a:ext cx="21971428" cy="6542857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>687800</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>179720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8D8B28-2697-652F-4097-7112C90AEAE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="15382875"/>
-          <a:ext cx="22095238" cy="10038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>393544</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>179940</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A318CED-5F40-0207-A85C-DF7940A3136F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23050500" y="15954375"/>
-          <a:ext cx="13942857" cy="8276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>550655</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>56083</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC03C3A-CF43-A8BE-0449-38C8164CB988}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="26289000"/>
-          <a:ext cx="14361905" cy="8533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>613092</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>98901</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C795E85-7725-D26D-2D96-A99BB85C53B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100000" y="15740062"/>
-          <a:ext cx="10161905" cy="8885714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>679776</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>194514</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6149818B-E191-3520-FF12-285744063BC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16144875" y="27074812"/>
-          <a:ext cx="10085714" cy="5980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>88605</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>237119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B09662-F299-6247-932D-E20E09BD25D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27836813" y="26479500"/>
-          <a:ext cx="15066667" cy="8047619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>589238</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>208226</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B62DA74-A1F6-E9E6-7113-787E538F290D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="44648438" y="25812750"/>
-          <a:ext cx="10495238" cy="10590476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1508,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AK120" sqref="AK120"/>
     </sheetView>
   </sheetViews>
@@ -1522,14 +4762,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F37D6E-D683-46CD-ACA8-D35046816776}">
-  <dimension ref="A1"/>
+  <dimension ref="BZ5"/>
   <sheetViews>
-    <sheetView topLeftCell="L91" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BP119" sqref="BP118:BP119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="78:78" x14ac:dyDescent="0.4">
+      <c r="BZ5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1540,7 +4786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A988532-56CB-4C58-8468-D548B41A0DE1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BC133" sqref="BC133"/>
     </sheetView>
   </sheetViews>
